--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -1,34 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUTTING\Dropbox\19 COTIZADOS\1007_PLANETESCAPE_LLORET\FINANTIALS WEBSITE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BBC50-0E80-4BB0-A09D-1AD905F346CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="bud" sheetId="1" r:id="rId1"/>
+    <sheet name="bud" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Att.</t>
   </si>
@@ -56,7 +39,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>UL. KROWODERSKA 52 /LU2, 31-158 KRAKÓW</t>
     </r>
@@ -65,7 +47,6 @@
         <sz val="16"/>
         <color indexed="11"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -152,22 +133,20 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <i/>
+        <b val="1"/>
+        <i val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Cutting Edge Events</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>, S.L Av. Via Augusta 15-25, Barcelona CIF B-97963813</t>
     </r>
@@ -182,10 +161,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -193,35 +185,30 @@
       <sz val="9"/>
       <color indexed="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="11"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -265,10 +252,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left>
+        <color indexed="9"/>
+      </left>
+      <right>
+        <color indexed="9"/>
+      </right>
+      <top>
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,70 +470,128 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,85 +600,30 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="FF231F20"/>
-      <rgbColor rgb="FF500050"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFF7CAAC"/>
-      <rgbColor rgb="FFFBE4D5"/>
-      <rgbColor rgb="FFD8D8D8"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff231f20"/>
+      <rgbColor rgb="ff500050"/>
+      <rgbColor rgb="ffed7d31"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="fff7caac"/>
+      <rgbColor rgb="fffbe4d5"/>
+      <rgbColor rgb="ffd8d8d8"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -641,19 +639,15 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="IMG_0476.png" descr="IMG_0476.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="IMG_0476.png" descr="IMG_0476.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1">
+          <a:extLst/>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -679,7 +673,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -881,7 +875,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -900,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,15 +1145,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1176,7 +1164,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1195,7 +1183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1325,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1351,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1429,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1442,15 +1430,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1464,7 +1446,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1483,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1643,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1669,7 +1651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1695,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1721,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1734,117 +1716,109 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:IV35"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AG3030"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" defaultGridColor="0" colorId="9"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.67188" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6719" style="1" customWidth="1"/>
+    <col min="9" max="33" width="8.85156" style="1" customWidth="1"/>
+    <col min="34" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B5" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B6" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="7" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B7" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="8" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B8" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="9" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B9" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+    <row r="10" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+    <row r="13" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B13" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" t="s" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="2" customFormat="1" ht="14.15" customHeight="1">
       <c r="B14" s="11">
         <v>43744</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
       <c r="D14" s="13">
@@ -1854,18 +1828,18 @@
         <v>128</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" ref="F14:F24" si="0">E14*D14</f>
+        <f>E14*D14</f>
         <v>3840</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" t="s" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="2" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" ht="13.65" customHeight="1">
       <c r="B15" s="17">
         <v>43744</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" t="s" s="18">
         <v>20</v>
       </c>
       <c r="D15" s="19">
@@ -1875,18 +1849,18 @@
         <v>170</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="0"/>
+        <f>E15*D15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" t="s" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="2" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" ht="13.65" customHeight="1">
       <c r="B16" s="22">
         <v>43744</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" t="s" s="23">
         <v>21</v>
       </c>
       <c r="D16" s="24">
@@ -1896,18 +1870,18 @@
         <v>170</v>
       </c>
       <c r="F16" s="26">
-        <f t="shared" si="0"/>
+        <f>E16*D16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" t="s" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="2" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" ht="13.65" customHeight="1">
       <c r="B17" s="17">
         <v>43744</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" t="s" s="27">
         <v>22</v>
       </c>
       <c r="D17" s="19">
@@ -1917,18 +1891,18 @@
         <v>1.21</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="0"/>
+        <f>E17*D17</f>
         <v>75.02</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" t="s" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" ht="14.15" customHeight="1">
       <c r="B18" s="28">
         <v>43744</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" t="s" s="29">
         <v>23</v>
       </c>
       <c r="D18" s="24">
@@ -1938,18 +1912,18 @@
         <v>278</v>
       </c>
       <c r="F18" s="26">
-        <f t="shared" si="0"/>
+        <f>E18*D18</f>
         <v>278</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" t="s" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B19" s="17">
         <v>43745</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" t="s" s="30">
         <v>25</v>
       </c>
       <c r="D19" s="19">
@@ -1959,18 +1933,18 @@
         <v>910</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="0"/>
+        <f>E19*D19</f>
         <v>910</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" t="s" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="2" customFormat="1" ht="14.15" customHeight="1">
       <c r="B20" s="31">
         <v>43745</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" t="s" s="29">
         <v>26</v>
       </c>
       <c r="D20" s="24">
@@ -1980,18 +1954,18 @@
         <v>230</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="0"/>
+        <f>E20*D20</f>
         <v>460</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" t="s" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="2" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="2" customFormat="1" ht="13.65" customHeight="1">
       <c r="B21" s="17">
         <v>43745</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" t="s" s="27">
         <v>28</v>
       </c>
       <c r="D21" s="19">
@@ -2001,18 +1975,18 @@
         <v>35</v>
       </c>
       <c r="F21" s="32">
-        <f t="shared" si="0"/>
+        <f>E21*D21</f>
         <v>2100</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" t="s" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="2" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="2" customFormat="1" ht="13.65" customHeight="1">
       <c r="B22" s="28">
         <v>43745</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" t="s" s="29">
         <v>30</v>
       </c>
       <c r="D22" s="24">
@@ -2022,18 +1996,18 @@
         <v>140</v>
       </c>
       <c r="F22" s="26">
-        <f t="shared" si="0"/>
+        <f>E22*D22</f>
         <v>12600</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" t="s" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="2" customFormat="1" ht="14.15" customHeight="1">
       <c r="B23" s="17">
         <v>43745</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" t="s" s="27">
         <v>31</v>
       </c>
       <c r="D23" s="19">
@@ -2043,55 +2017,64 @@
         <v>100</v>
       </c>
       <c r="F23" s="26">
-        <f t="shared" si="0"/>
+        <f>E23*D23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" t="s" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="28">
+    <row r="24" s="2" customFormat="1" ht="14.65" customHeight="1">
+      <c r="B24" s="17">
+        <v>43745</v>
+      </c>
+      <c r="C24" t="s" s="27">
+        <v>22</v>
+      </c>
+      <c r="D24" s="19">
+        <f>62*3</f>
+        <v>186</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <f>E24*D24</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="14.65" customHeight="1">
+      <c r="B25" s="28">
         <v>43748</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C25" t="s" s="29">
         <v>32</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D25" s="24">
         <v>1</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E25" s="25">
         <v>700</v>
       </c>
-      <c r="F24" s="26">
-        <f t="shared" si="0"/>
+      <c r="F25" s="26">
+        <f>E25*D25</f>
         <v>700</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G25" t="s" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="33" t="s">
+    <row r="26" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C26" t="s" s="33">
         <v>33</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F26" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="s">
+    <row r="33" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B33" t="s" s="35">
         <v>34</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
-        <v>35</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -2099,9 +2082,9 @@
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
-        <v>36</v>
+    <row r="34" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B34" t="s" s="35">
+        <v>35</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
@@ -2109,16 +2092,26 @@
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+    <row r="35" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B35" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
